--- a/public/assets/excel/register_group.xlsx
+++ b/public/assets/excel/register_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\web-aspro\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ECC8E4-7E1B-47F3-9641-BBA2FC23A7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8556CC13-7B6E-4038-9C2A-E7B9C4A76F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DB44E57-BC8F-4CB9-BB7C-CB79F8B9A592}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t>Mahir</t>
   </si>
   <si>
-    <t>SK Jabatan (Link/File Terlampir)</t>
+    <t>document_jab</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/assets/excel/register_group.xlsx
+++ b/public/assets/excel/register_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\web-aspro\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8556CC13-7B6E-4038-9C2A-E7B9C4A76F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EAB372-DA5A-4147-9D5E-5406C8352BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DB44E57-BC8F-4CB9-BB7C-CB79F8B9A592}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>nip</t>
   </si>
@@ -54,9 +54,6 @@
     <t>199500092022031003</t>
   </si>
   <si>
-    <t>C:\Users\user\Documents\proposal.pdf</t>
-  </si>
-  <si>
     <t>kontak</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
   </si>
   <si>
     <t>Mahir</t>
-  </si>
-  <si>
-    <t>document_jab</t>
   </si>
 </sst>
 </file>
@@ -466,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB59973-933E-4EF1-BF71-7820EF3D657B}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,10 +475,9 @@
     <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="31.5703125" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -495,33 +488,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -530,36 +520,30 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/excel/register_group.xlsx
+++ b/public/assets/excel/register_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\web-aspro\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EAB372-DA5A-4147-9D5E-5406C8352BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D0576F-5753-4DE7-915E-E9B52FDE6E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DB44E57-BC8F-4CB9-BB7C-CB79F8B9A592}"/>
   </bookViews>
@@ -90,10 +90,10 @@
     <t>Pranata SDM Aparatur</t>
   </si>
   <si>
-    <t>Ahli Pertama</t>
-  </si>
-  <si>
     <t>Mahir</t>
+  </si>
+  <si>
+    <t>Pertama</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
